--- a/BackTest/2020-01-20 BackTest ADA.xlsx
+++ b/BackTest/2020-01-20 BackTest ADA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-732936.5787485</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-735360.6565484999</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-754802.8245484999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-707112.3960484999</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-700394.8136484999</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-700394.8136484999</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-708677.8136484999</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-704293.2358484999</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-707260.4965484999</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-707260.4965484999</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-704336.2508484999</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-707712.5508485</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-758352.0990484999</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-875239.9632484999</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-768985.5438484999</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-732571.3292484999</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-732571.3292484999</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-732806.1646484999</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-808958.1868401099</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-840171.7346557198</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-841440.5752557198</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-1066906.45875572</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-953713.7005557196</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-976202.1469557196</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-969338.5941557196</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-969338.5941557196</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-969338.5941557196</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-969338.5941557196</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-865340.2166557196</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-917399.6712557196</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-917399.6712557196</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-917399.6712557196</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-919353.5594933096</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-920843.5412933095</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-920853.5412933095</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-929574.1666343495</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-1127496.869734349</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-1117395.552134349</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-1138098.908834349</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-1192240.975034349</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-1194101.075034349</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-1203799.497934349</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-1203799.497934349</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-1193799.497934349</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-1193799.497934349</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-1177070.751234349</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-1177070.751234349</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-1153130.789734349</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-1181030.789734349</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-1159391.979092729</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-1181655.016592729</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-1189256.452692729</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-1189256.452692729</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-1192079.297792729</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-1192079.297792729</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-1192079.297792729</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-1192746.620192729</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-1192746.620192729</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-1187746.620192729</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-1185785.451336099</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-1202131.013236099</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-1209884.168536099</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-1209884.168536099</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-1209884.168536099</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-1209884.168536099</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-1209884.168536099</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-1209884.168536099</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-1207749.741936099</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-1212344.5404361</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-1212344.5404361</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-1212344.5404361</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-1225258.244936099</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-1225258.244936099</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-1214859.405836099</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-1214886.338336099</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-1214886.338336099</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-1214886.338336099</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-1156166.398685599</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-1156166.398685599</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-1156166.398685599</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-1150811.849936099</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-1150811.849936099</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-1163353.355786599</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-1173900.5825866</v>
       </c>
       <c r="H183" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-1184635.400886599</v>
       </c>
       <c r="H184" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-1173956.643186599</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-1193840.2808866</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-1193790.62797492</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-1213019.696974919</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-1213019.696974919</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-1213019.696974919</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-1213009.696974919</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-1213009.696974919</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-1093751.076374919</v>
       </c>
       <c r="H193" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-1093700.076374919</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-1093700.076374919</v>
       </c>
       <c r="H195" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-1093700.076374919</v>
       </c>
       <c r="H196" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-1091962.852374919</v>
       </c>
       <c r="H197" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-1056802.02857492</v>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-1025782.64286138</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-1025782.64286138</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-947391.3262613795</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-969787.2318613795</v>
       </c>
       <c r="H203" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-1029805.688161379</v>
       </c>
       <c r="H204" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-986316.7543613794</v>
       </c>
       <c r="H205" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-986316.7543613794</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-1068265.326361379</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-1085296.503861379</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-1085947.386761379</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-1090189.091161379</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-1075708.156261379</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-1138616.384361379</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-1144772.007761379</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-1216535.167161379</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-1186253.564061379</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-1299435.467361379</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-1346921.937761379</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-1346921.937761379</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-1332207.326961379</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-1332307.326961379</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-1219398.41396138</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-1224456.42066138</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-1224456.42066138</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-1236524.54016138</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-1228150.41936138</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-1239557.35796138</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-1239557.35796138</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-1210255.58356138</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-1233696.87166138</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-1242589.52296138</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-1240589.52296138</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-1240589.52296138</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-1240589.52296138</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-1251460.16746138</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-1251460.16746138</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-1290176.47256138</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-1302746.79176138</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-1333473.35446138</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-1317781.25426138</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-1317914.74926138</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-1316556.05360921</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-1316556.05360921</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-1316556.05360921</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-1325408.96740921</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-1325408.96740921</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-1325408.96740921</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-1328953.755709209</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-1325439.701609209</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-1325439.701609209</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-1327473.333209209</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-1327473.333209209</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-1325111.708709209</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-1325111.708709209</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-1324611.708709209</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-1324322.928601639</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-1324322.928601639</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-1324322.928601639</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-1415377.151601639</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-1318814.773101639</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-1348818.226601639</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-1348818.226601639</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-1348818.226601639</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-1348818.226601639</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-1348818.226601639</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-1351726.642001639</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-1351726.642001639</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-1356749.642001639</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-1356749.642001639</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-1356749.642001639</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-1356749.642001639</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-1344553.185993379</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-1388890.220593379</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-1388332.170593379</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-1385431.065942219</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-1385021.769272979</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-1385205.396272979</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-1385193.396272979</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-1385169.396272979</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-1385133.396272979</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-1385500.218272979</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-1385490.218272979</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-1327490.218272979</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-1357297.866172979</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-1357297.866172979</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-1357297.866172979</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-1357297.866172979</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-1357297.866172979</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-1347570.290172979</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-1347570.290172979</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-1369417.342672979</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-1369427.611272979</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-1370248.344272979</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-1362173.225772979</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-1545228.515572979</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-1521128.515572979</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-1521128.515572979</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-1512474.419472979</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-1512474.419472979</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-1578642.612172979</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-1578642.612172979</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-1578642.612172979</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-1579640.112172979</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-1570807.992172979</v>
       </c>
       <c r="H304" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-1570807.992172979</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-1570807.992172979</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-1570897.312572979</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-1565763.697572979</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-1561569.604272979</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-1561569.604272979</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-1561569.604272979</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-1561569.604272979</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-1570791.590572979</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-1570791.590572979</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-1630188.661272979</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-1630188.661272979</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-1600126.438072979</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-1591994.022672979</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-1577772.873172979</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-1577772.873172979</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-1577772.873172979</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-1557263.584472979</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>-1543961.499272979</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-1543249.748772979</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-1543259.397572979</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-1548671.784072979</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-1507480.711372979</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-1513595.169672979</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-1513595.169672979</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-1513522.401572979</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-1513495.942872979</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-1513495.942872979</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-1513513.283972979</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-1511594.276662479</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-1511635.194262479</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-1511712.63966248</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-1522274.86826248</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-1522611.36826248</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-1522611.36826248</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-1553984.28366248</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-1572268.61326248</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-1573224.09456248</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-1573224.09456248</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-1595264.55466248</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-1595264.55466248</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-1559371.40586248</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-1573451.01066248</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-1593451.01066248</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>-1596451.01066248</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-1597319.13366248</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-1597319.13366248</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-1597319.13366248</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-1597319.13366248</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-1597319.13366248</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-1609194.35266248</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-1603891.50376248</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-1603891.50376248</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-1561582.81158374</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-1560841.71858374</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-1558595.80928374</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>-1494059.78768374</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>-1524266.19788374</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>-1509336.14008374</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>-1509336.14008374</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>-1509336.14008374</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>-1509336.14008374</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>-1513695.72478374</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>-1513695.72478374</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>-1513695.72478374</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>-1505342.11568374</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>-1404509.127083739</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>-1405035.758283739</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>-1405035.758283739</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>-1405035.758283739</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>-1405035.758283739</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>-1376072.176783739</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>-1376072.176783739</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>-1377425.990183739</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>-1377369.88648864</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>-1381728.79528864</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>-1384241.43908864</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>-1384241.43908864</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>-1384241.43908864</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>-1384241.43908864</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>-1379451.43908864</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>-1359757.00541913</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>-1360108.53811913</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>-1359450.23711913</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>-1367031.41881913</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>-1364031.41881913</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>-1364419.70211913</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>-1355758.66731913</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>-1355758.66731913</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>-1355799.81951913</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>-1296561.219519129</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>-1296561.219519129</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>-1249300.22521913</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>-1185451.307919129</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>-1185451.307919129</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>-1185451.307919129</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>-1088822.419977339</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>-1098265.026377339</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>-1103684.015977339</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>-1110246.622277339</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>-1111006.622277339</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>-1133608.537477339</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>-1155229.159677339</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>-1171332.44567734</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>-1165568.81417734</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>-1165568.81417734</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>-1166847.70837734</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>-1166847.70837734</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>-1166847.70837734</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>-1166377.78277734</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>-1156247.87887734</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>-1149219.44229898</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>-1155855.15659898</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>-1155855.15659898</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>-1155855.15659898</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>-1155855.15659898</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>-1155855.15659898</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>-1155855.15659898</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>-1152248.62839898</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>-1154956.79969898</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>-1153136.29969898</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>-1152476.29969898</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>-1152476.29969898</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>-1047803.21149898</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>-1047778.53679898</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>-1047818.3897686</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>-1047818.3897686</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>-1047818.3897686</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>-1070081.4272686</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>-1070027.10508721</v>
       </c>
       <c r="H434" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>-1071985.96888721</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>-1071985.96888721</v>
       </c>
       <c r="H436" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>-1071985.96888721</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>-1072997.71688721</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>-1072997.71688721</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>-1072997.71688721</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>-1069702.75952287</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>-1079286.75442287</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>-1079286.75442287</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>-1109143.71762287</v>
       </c>
       <c r="H444" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>-1214736.45772287</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>-1350552.07402287</v>
       </c>
       <c r="H446" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>-1507190.22232287</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>-1663891.50122287</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>-1416148.76432287</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>-1596645.87752287</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>-1596645.87752287</v>
       </c>
       <c r="H451" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>-1596645.87752287</v>
       </c>
       <c r="H452" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>-1599815.77982287</v>
       </c>
       <c r="H453" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>-1331390.39502287</v>
       </c>
       <c r="H454" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>-1315562.731422869</v>
       </c>
       <c r="H455" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>-1315562.731422869</v>
       </c>
       <c r="H456" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>-1205065.915781139</v>
       </c>
       <c r="H460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>-1205065.915781139</v>
       </c>
       <c r="H461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>-1205065.915781139</v>
       </c>
       <c r="H462" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>-1205065.915781139</v>
       </c>
       <c r="H463" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>-1190120.018881139</v>
       </c>
       <c r="H464" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>-1190120.018881139</v>
       </c>
       <c r="H465" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>-1184771.937181139</v>
       </c>
       <c r="H467" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
         <v>-1185360.011281139</v>
       </c>
       <c r="H468" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>-1203379.45078114</v>
       </c>
       <c r="H469" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>-1257329.21108114</v>
       </c>
       <c r="H471" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>-1260258.296481139</v>
       </c>
       <c r="H472" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -17512,11 +17512,17 @@
         <v>-2448777.552247858</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
-      </c>
-      <c r="I519" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I519" t="n">
+        <v>47.39</v>
+      </c>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -17545,11 +17551,17 @@
         <v>-2446478.605547358</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
-      </c>
-      <c r="I520" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I520" t="n">
+        <v>47.19</v>
+      </c>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -17578,11 +17590,17 @@
         <v>-2653629.072947358</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
-      </c>
-      <c r="I521" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I521" t="n">
+        <v>47.28</v>
+      </c>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -17611,11 +17629,17 @@
         <v>-2653629.072947358</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
-      </c>
-      <c r="I522" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I522" t="n">
+        <v>46.95</v>
+      </c>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -17648,7 +17672,11 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -17677,15 +17705,17 @@
         <v>-2615756.696749738</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I524" t="n">
         <v>47.14</v>
       </c>
-      <c r="J524" t="n">
-        <v>47.14</v>
-      </c>
-      <c r="K524" t="inlineStr"/>
+      <c r="J524" t="inlineStr"/>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -17714,15 +17744,15 @@
         <v>-2615792.757749738</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
-      </c>
-      <c r="I525" t="inlineStr"/>
-      <c r="J525" t="n">
-        <v>47.14</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I525" t="n">
+        <v>47.23</v>
+      </c>
+      <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L525" t="n">
@@ -17753,17 +17783,15 @@
         <v>-2615792.757749738</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I526" t="n">
         <v>47.21</v>
       </c>
-      <c r="J526" t="n">
-        <v>47.14</v>
-      </c>
+      <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L526" t="n">
@@ -17794,11 +17822,17 @@
         <v>-2601042.300549738</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
-      </c>
-      <c r="I527" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I527" t="n">
+        <v>47.21</v>
+      </c>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -17827,11 +17861,17 @@
         <v>-2533341.071920308</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
-      </c>
-      <c r="I528" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I528" t="n">
+        <v>47.29</v>
+      </c>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -17860,11 +17900,17 @@
         <v>-2470079.853720308</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
-      </c>
-      <c r="I529" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I529" t="n">
+        <v>47.36</v>
+      </c>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -17893,15 +17939,17 @@
         <v>-2318526.818620308</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I530" t="n">
         <v>47.56</v>
       </c>
-      <c r="J530" t="n">
-        <v>47.56</v>
-      </c>
-      <c r="K530" t="inlineStr"/>
+      <c r="J530" t="inlineStr"/>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -17930,15 +17978,15 @@
         <v>-2320889.307920308</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
-      </c>
-      <c r="I531" t="inlineStr"/>
-      <c r="J531" t="n">
-        <v>47.56</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I531" t="n">
+        <v>47.57</v>
+      </c>
+      <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L531" t="n">
@@ -17969,12 +18017,12 @@
         <v>-2311446.701520308</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
-      </c>
-      <c r="I532" t="inlineStr"/>
-      <c r="J532" t="n">
-        <v>47.56</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I532" t="n">
+        <v>47.48</v>
+      </c>
+      <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18011,9 +18059,7 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="n">
-        <v>47.56</v>
-      </c>
+      <c r="J533" t="inlineStr"/>
       <c r="K533" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18047,12 +18093,12 @@
         <v>-2266081.804720309</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
-      </c>
-      <c r="I534" t="inlineStr"/>
-      <c r="J534" t="n">
-        <v>47.56</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I534" t="n">
+        <v>47.65</v>
+      </c>
+      <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18086,12 +18132,12 @@
         <v>-2244844.997918059</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
-      </c>
-      <c r="I535" t="inlineStr"/>
-      <c r="J535" t="n">
-        <v>47.56</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I535" t="n">
+        <v>47.68</v>
+      </c>
+      <c r="J535" t="inlineStr"/>
       <c r="K535" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18125,12 +18171,12 @@
         <v>-2278024.490818059</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
-      </c>
-      <c r="I536" t="inlineStr"/>
-      <c r="J536" t="n">
-        <v>47.56</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I536" t="n">
+        <v>47.94</v>
+      </c>
+      <c r="J536" t="inlineStr"/>
       <c r="K536" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18167,9 +18213,7 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="n">
-        <v>47.56</v>
-      </c>
+      <c r="J537" t="inlineStr"/>
       <c r="K537" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18206,9 +18250,7 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="n">
-        <v>47.56</v>
-      </c>
+      <c r="J538" t="inlineStr"/>
       <c r="K538" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18245,9 +18287,7 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="n">
-        <v>47.56</v>
-      </c>
+      <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18284,9 +18324,7 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="n">
-        <v>47.56</v>
-      </c>
+      <c r="J540" t="inlineStr"/>
       <c r="K540" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18323,9 +18361,7 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="n">
-        <v>47.56</v>
-      </c>
+      <c r="J541" t="inlineStr"/>
       <c r="K541" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18362,9 +18398,7 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="n">
-        <v>47.56</v>
-      </c>
+      <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18401,9 +18435,7 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="n">
-        <v>47.56</v>
-      </c>
+      <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18440,9 +18472,7 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="n">
-        <v>47.56</v>
-      </c>
+      <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18479,9 +18509,7 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="n">
-        <v>47.56</v>
-      </c>
+      <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18518,9 +18546,7 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="n">
-        <v>47.56</v>
-      </c>
+      <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18557,9 +18583,7 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="n">
-        <v>47.56</v>
-      </c>
+      <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18596,9 +18620,7 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="n">
-        <v>47.56</v>
-      </c>
+      <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18635,9 +18657,7 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="n">
-        <v>47.56</v>
-      </c>
+      <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18674,9 +18694,7 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="n">
-        <v>47.56</v>
-      </c>
+      <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18713,9 +18731,7 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="n">
-        <v>47.56</v>
-      </c>
+      <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18752,9 +18768,7 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="n">
-        <v>47.56</v>
-      </c>
+      <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18791,9 +18805,7 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="n">
-        <v>47.56</v>
-      </c>
+      <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18830,9 +18842,7 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="n">
-        <v>47.56</v>
-      </c>
+      <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18869,9 +18879,7 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="n">
-        <v>47.56</v>
-      </c>
+      <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18908,9 +18916,7 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="n">
-        <v>47.56</v>
-      </c>
+      <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18947,9 +18953,7 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="n">
-        <v>47.56</v>
-      </c>
+      <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18986,9 +18990,7 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="n">
-        <v>47.56</v>
-      </c>
+      <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19025,9 +19027,7 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="n">
-        <v>47.56</v>
-      </c>
+      <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19064,9 +19064,7 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="n">
-        <v>47.56</v>
-      </c>
+      <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19103,9 +19101,7 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="n">
-        <v>47.56</v>
-      </c>
+      <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19142,9 +19138,7 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="n">
-        <v>47.56</v>
-      </c>
+      <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19181,9 +19175,7 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="n">
-        <v>47.56</v>
-      </c>
+      <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19217,14 +19209,10 @@
         <v>-2914190.1434357</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
-      </c>
-      <c r="I564" t="n">
-        <v>47.15</v>
-      </c>
-      <c r="J564" t="n">
-        <v>47.56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I564" t="inlineStr"/>
+      <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19261,9 +19249,7 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="n">
-        <v>47.56</v>
-      </c>
+      <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19300,9 +19286,7 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="n">
-        <v>47.56</v>
-      </c>
+      <c r="J566" t="inlineStr"/>
       <c r="K566" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19336,12 +19320,12 @@
         <v>-3087775.31600095</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
-      </c>
-      <c r="I567" t="inlineStr"/>
-      <c r="J567" t="n">
-        <v>47.56</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I567" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19375,14 +19359,12 @@
         <v>-3052383.9504662</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I568" t="n">
         <v>46.92</v>
       </c>
-      <c r="J568" t="n">
-        <v>47.56</v>
-      </c>
+      <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19416,14 +19398,12 @@
         <v>-3057004.5659662</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I569" t="n">
         <v>47.2</v>
       </c>
-      <c r="J569" t="n">
-        <v>47.56</v>
-      </c>
+      <c r="J569" t="inlineStr"/>
       <c r="K569" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19457,14 +19437,12 @@
         <v>-3046462.1937662</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I570" t="n">
         <v>47.19</v>
       </c>
-      <c r="J570" t="n">
-        <v>47.56</v>
-      </c>
+      <c r="J570" t="inlineStr"/>
       <c r="K570" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19498,14 +19476,12 @@
         <v>-3034143.4206662</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I571" t="n">
         <v>47.29</v>
       </c>
-      <c r="J571" t="n">
-        <v>47.56</v>
-      </c>
+      <c r="J571" t="inlineStr"/>
       <c r="K571" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19539,14 +19515,10 @@
         <v>-3022259.0108662</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
-      </c>
-      <c r="I572" t="n">
-        <v>47.36</v>
-      </c>
-      <c r="J572" t="n">
-        <v>47.56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I572" t="inlineStr"/>
+      <c r="J572" t="inlineStr"/>
       <c r="K572" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19580,14 +19552,12 @@
         <v>-3017259.0108662</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I573" t="n">
         <v>47.55</v>
       </c>
-      <c r="J573" t="n">
-        <v>47.56</v>
-      </c>
+      <c r="J573" t="inlineStr"/>
       <c r="K573" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19621,14 +19591,12 @@
         <v>-2995014.10381997</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I574" t="n">
         <v>47.61</v>
       </c>
-      <c r="J574" t="n">
-        <v>47.56</v>
-      </c>
+      <c r="J574" t="inlineStr"/>
       <c r="K574" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19662,14 +19630,12 @@
         <v>-2995035.046228339</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I575" t="n">
         <v>47.76</v>
       </c>
-      <c r="J575" t="n">
-        <v>47.56</v>
-      </c>
+      <c r="J575" t="inlineStr"/>
       <c r="K575" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19703,14 +19669,12 @@
         <v>-2995049.761428339</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I576" t="n">
         <v>47.75</v>
       </c>
-      <c r="J576" t="n">
-        <v>47.56</v>
-      </c>
+      <c r="J576" t="inlineStr"/>
       <c r="K576" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19744,14 +19708,12 @@
         <v>-2812718.24432834</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I577" t="n">
         <v>47.57</v>
       </c>
-      <c r="J577" t="n">
-        <v>47.56</v>
-      </c>
+      <c r="J577" t="inlineStr"/>
       <c r="K577" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19763,6 +19725,6 @@
       <c r="M577" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest ADA.xlsx
+++ b/BackTest/2020-01-20 BackTest ADA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-732936.5787485</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-735360.6565484999</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-754802.8245484999</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-707112.3960484999</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-700394.8136484999</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-700394.8136484999</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-704336.2508484999</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-707712.5508485</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-785359.1825484999</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-875239.9632484999</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-768985.5438484999</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-732806.1646484999</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-736996.5382401099</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-734806.1647401099</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-733720.8396401099</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-778050.3198401099</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-778034.66904011</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-801846.6654401099</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-808958.1868401099</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-808958.1868401099</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-806486.7157401099</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-806308.0379557199</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-814196.6708557198</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-960615.4479557199</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-1014180.85695572</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-1014180.85695572</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-1014180.85695572</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-1027984.17625572</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-1018359.21335572</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-968359.2133557198</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-959859.2133557198</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-959859.2133557198</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-959859.2133557198</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-959859.2133557198</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-959859.2133557198</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-994692.4505557198</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-938115.1517557198</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-948647.3118557198</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-948647.3118557198</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-955747.3118557198</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-955222.9901557198</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-955222.9901557198</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-953852.9901557198</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-953852.9901557198</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-953785.1529557199</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-956028.3026557198</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-905709.6225557198</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-1104802.35575572</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-1104802.35575572</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-1257604.48315572</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-1245600.65875572</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-1247601.65875572</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-1247267.75345572</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-1247218.81725572</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-1243130.81725572</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-1243687.43365572</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-1225904.62375572</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-1195496.30855572</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-1130702.38235572</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-1098224.62875572</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-1065717.26725572</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-1065731.15615572</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-1066694.11075572</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-1067573.96355572</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-1067240.92525572</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-1067240.92525572</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-1067240.92525572</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-1067240.92525572</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-1067240.92525572</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-1066906.45875572</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-1071784.94945572</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-1053367.44725572</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-1053843.88475572</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-1053843.88475572</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-1053843.88475572</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-1045916.21125572</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-1029916.21125572</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-1029273.20525572</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-1013967.52915572</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-953713.7005557196</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-976202.1469557196</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-969338.5941557196</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-969338.5941557196</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-969338.5941557196</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-969338.5941557196</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-865340.2166557196</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-929574.1666343495</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-1127496.869734349</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-1117395.552134349</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-1138098.908834349</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-1192240.975034349</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-1194101.075034349</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-1203799.497934349</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-1203799.497934349</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-1193799.497934349</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-1193799.497934349</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-1177070.751234349</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-1177070.751234349</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-1153130.789734349</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-1181030.789734349</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-1159391.979092729</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-1181655.016592729</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-1189256.452692729</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-1189256.452692729</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-1192079.297792729</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-1192079.297792729</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-1192079.297792729</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-1192746.620192729</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-1192746.620192729</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-1187746.620192729</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-1185785.451336099</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-1202131.013236099</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-1209884.168536099</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-1209884.168536099</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-1209884.168536099</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-1209884.168536099</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-1209884.168536099</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-1209884.168536099</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-1207749.741936099</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-1212344.5404361</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-1212344.5404361</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-1212344.5404361</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-1214886.338336099</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-1214886.338336099</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-1214886.338336099</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-1156166.398685599</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-1156166.398685599</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-1156166.398685599</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-1150811.849936099</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-1150811.849936099</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-1163353.355786599</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-1173900.5825866</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-1184635.400886599</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-1173956.643186599</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-1193840.2808866</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-1193790.62797492</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-1213019.696974919</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-1213019.696974919</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-1213019.696974919</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-1213009.696974919</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-1213009.696974919</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-1093751.076374919</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-1093700.076374919</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-1093700.076374919</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-1093700.076374919</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-1091962.852374919</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-1056802.02857492</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-1025782.64286138</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-1025782.64286138</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-947391.3262613795</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-1029805.688161379</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-986316.7543613794</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-986316.7543613794</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-1068265.326361379</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-1085296.503861379</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-1085947.386761379</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-1090189.091161379</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-1075708.156261379</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-1138616.384361379</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-1144772.007761379</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-1216535.167161379</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-1186253.564061379</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-1299435.467361379</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-1346921.937761379</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-1346921.937761379</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-1332207.326961379</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-1332307.326961379</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-1219398.41396138</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-1224456.42066138</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-1224456.42066138</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-1236524.54016138</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-1228150.41936138</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-1239557.35796138</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-1239557.35796138</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-1210255.58356138</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-1233696.87166138</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-1242589.52296138</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-1240589.52296138</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-1240589.52296138</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-1240589.52296138</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-1251460.16746138</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-1251460.16746138</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-1290176.47256138</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-1302746.79176138</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-1333473.35446138</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-1317781.25426138</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-1317914.74926138</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-1316556.05360921</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-1316556.05360921</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-1316556.05360921</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-1325408.96740921</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-1325408.96740921</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-1325408.96740921</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-1328953.755709209</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-1325439.701609209</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-1325439.701609209</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-1327473.333209209</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-1327473.333209209</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-1325111.708709209</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-1325111.708709209</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-1324611.708709209</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-1324322.928601639</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-1324322.928601639</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-1324322.928601639</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-1415377.151601639</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-1318814.773101639</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-1348818.226601639</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-1348818.226601639</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-1348818.226601639</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-1348818.226601639</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-1348818.226601639</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-1351726.642001639</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-1351726.642001639</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-1356749.642001639</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-1356749.642001639</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-1356749.642001639</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-1356749.642001639</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-1344553.185993379</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-1388890.220593379</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-1388332.170593379</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-1385431.065942219</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-1385021.769272979</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-1385205.396272979</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-1385193.396272979</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-1385169.396272979</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-1385133.396272979</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-1385500.218272979</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-1385490.218272979</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-1327490.218272979</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-1357297.866172979</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-1357297.866172979</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-1357297.866172979</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-1357297.866172979</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-1357297.866172979</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-1347570.290172979</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-1347570.290172979</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-1369417.342672979</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-1369427.611272979</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-1370248.344272979</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-1362173.225772979</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-1545228.515572979</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-1521128.515572979</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-1521128.515572979</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-1512474.419472979</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-1512474.419472979</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-1578642.612172979</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-1578642.612172979</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-1578642.612172979</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-1579640.112172979</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-1570807.992172979</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-1570807.992172979</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-1570807.992172979</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-1570897.312572979</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-1565763.697572979</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-1561569.604272979</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-1561569.604272979</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-1561569.604272979</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-1561569.604272979</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-1570791.590572979</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-1570791.590572979</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-1630188.661272979</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-1630188.661272979</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-1600126.438072979</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-1591994.022672979</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-1577772.873172979</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-1577772.873172979</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-1577772.873172979</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-1557263.584472979</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>-1543961.499272979</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-1543249.748772979</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-1543259.397572979</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-1548671.784072979</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-1507480.711372979</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-1513595.169672979</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-1513595.169672979</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-1513522.401572979</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-1513495.942872979</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-1513495.942872979</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-1513513.283972979</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-1511594.276662479</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-1511635.194262479</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-1511712.63966248</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-1522274.86826248</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-1522611.36826248</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-1522611.36826248</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-1553984.28366248</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-1572268.61326248</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-1573224.09456248</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-1573224.09456248</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-1595264.55466248</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-1595264.55466248</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-1559371.40586248</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-1573451.01066248</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-1593451.01066248</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>-1596451.01066248</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-1597319.13366248</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-1597319.13366248</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-1597319.13366248</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-1597319.13366248</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-1597319.13366248</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-1609194.35266248</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-1603891.50376248</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-1603891.50376248</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-1561582.81158374</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-1560841.71858374</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-1558595.80928374</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>-1494059.78768374</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>-1524266.19788374</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>-1509336.14008374</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>-1509336.14008374</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>-1509336.14008374</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>-1509336.14008374</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>-1513695.72478374</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>-1513695.72478374</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>-1513695.72478374</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>-1505342.11568374</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>-1404509.127083739</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>-1405035.758283739</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>-1405035.758283739</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>-1405035.758283739</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>-1405035.758283739</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>-1376072.176783739</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>-1376072.176783739</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>-1377425.990183739</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>-1377369.88648864</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>-1381728.79528864</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>-1384241.43908864</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>-1384241.43908864</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>-1384241.43908864</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>-1384241.43908864</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>-1379451.43908864</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>-1359757.00541913</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>-1360108.53811913</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>-1359450.23711913</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>-1367031.41881913</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>-1364031.41881913</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>-1364419.70211913</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>-1355758.66731913</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>-1355758.66731913</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>-1355799.81951913</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>-1296561.219519129</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>-1296561.219519129</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>-1249300.22521913</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>-1185451.307919129</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>-1185451.307919129</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>-1185451.307919129</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>-1088822.419977339</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>-1098265.026377339</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>-1103684.015977339</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>-1110246.622277339</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>-1111006.622277339</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>-1133608.537477339</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>-1155229.159677339</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>-1171332.44567734</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>-1165568.81417734</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>-1165568.81417734</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>-1166847.70837734</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>-1166847.70837734</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>-1166847.70837734</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>-1166377.78277734</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>-1156247.87887734</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>-1149219.44229898</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>-1155855.15659898</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>-1155855.15659898</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>-1155855.15659898</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>-1155855.15659898</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>-1155855.15659898</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>-1155855.15659898</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>-1152248.62839898</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>-1154956.79969898</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>-1153136.29969898</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>-1152476.29969898</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>-1152476.29969898</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>-1047803.21149898</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>-1047778.53679898</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>-1047818.3897686</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>-1047818.3897686</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>-1047818.3897686</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>-1070081.4272686</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>-1070027.10508721</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>-1071985.96888721</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>-1071985.96888721</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>-1071985.96888721</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>-1072997.71688721</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>-1072997.71688721</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>-1072997.71688721</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>-1069702.75952287</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>-1079286.75442287</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>-1079286.75442287</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>-1109143.71762287</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>-1214736.45772287</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>-1350552.07402287</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>-1507190.22232287</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>-1663891.50122287</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>-1416148.76432287</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>-1596645.87752287</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>-1596645.87752287</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>-1596645.87752287</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>-1599815.77982287</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>-1331390.39502287</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>-1315562.731422869</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -16126,11 +16126,17 @@
         <v>-1554469.735581139</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
-      </c>
-      <c r="I477" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I477" t="n">
+        <v>47.63</v>
+      </c>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16159,11 +16165,17 @@
         <v>-1554469.735581139</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
-      </c>
-      <c r="I478" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I478" t="n">
+        <v>47.73</v>
+      </c>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16196,7 +16208,11 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16229,7 +16245,11 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16262,7 +16282,11 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16295,7 +16319,11 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16328,7 +16356,11 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16361,7 +16393,11 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16394,7 +16430,11 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16427,7 +16467,11 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16460,7 +16504,11 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16493,7 +16541,11 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16526,7 +16578,11 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16559,7 +16615,11 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -16592,7 +16652,11 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -16625,7 +16689,11 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -16658,7 +16726,11 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -16691,7 +16763,11 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -16724,7 +16800,11 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -16757,7 +16837,11 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -16790,7 +16874,11 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -16823,7 +16911,11 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -16856,7 +16948,11 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -16889,7 +16985,11 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -16922,7 +17022,11 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -16955,7 +17059,11 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -16988,7 +17096,11 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17021,7 +17133,11 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17054,7 +17170,11 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17087,7 +17207,11 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17120,7 +17244,11 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17153,7 +17281,11 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17186,7 +17318,11 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17219,7 +17355,11 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17252,7 +17392,11 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17285,7 +17429,11 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17318,7 +17466,11 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17351,7 +17503,11 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17384,7 +17540,11 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17417,7 +17577,11 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17450,7 +17614,11 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17483,7 +17651,11 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17512,15 +17684,13 @@
         <v>-2448777.552247858</v>
       </c>
       <c r="H519" t="n">
-        <v>1</v>
-      </c>
-      <c r="I519" t="n">
-        <v>47.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L519" t="n">
@@ -17551,11 +17721,9 @@
         <v>-2446478.605547358</v>
       </c>
       <c r="H520" t="n">
-        <v>1</v>
-      </c>
-      <c r="I520" t="n">
-        <v>47.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr">
         <is>
@@ -17590,11 +17758,9 @@
         <v>-2653629.072947358</v>
       </c>
       <c r="H521" t="n">
-        <v>1</v>
-      </c>
-      <c r="I521" t="n">
-        <v>47.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr">
         <is>
@@ -17629,11 +17795,9 @@
         <v>-2653629.072947358</v>
       </c>
       <c r="H522" t="n">
-        <v>1</v>
-      </c>
-      <c r="I522" t="n">
-        <v>46.95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr">
         <is>
@@ -17705,11 +17869,9 @@
         <v>-2615756.696749738</v>
       </c>
       <c r="H524" t="n">
-        <v>1</v>
-      </c>
-      <c r="I524" t="n">
-        <v>47.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr">
         <is>
@@ -17744,11 +17906,9 @@
         <v>-2615792.757749738</v>
       </c>
       <c r="H525" t="n">
-        <v>1</v>
-      </c>
-      <c r="I525" t="n">
-        <v>47.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr">
         <is>
@@ -17783,11 +17943,9 @@
         <v>-2615792.757749738</v>
       </c>
       <c r="H526" t="n">
-        <v>1</v>
-      </c>
-      <c r="I526" t="n">
-        <v>47.21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr">
         <is>
@@ -17822,11 +17980,9 @@
         <v>-2601042.300549738</v>
       </c>
       <c r="H527" t="n">
-        <v>1</v>
-      </c>
-      <c r="I527" t="n">
-        <v>47.21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr">
         <is>
@@ -17861,11 +18017,9 @@
         <v>-2533341.071920308</v>
       </c>
       <c r="H528" t="n">
-        <v>1</v>
-      </c>
-      <c r="I528" t="n">
-        <v>47.29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr">
         <is>
@@ -17900,11 +18054,9 @@
         <v>-2470079.853720308</v>
       </c>
       <c r="H529" t="n">
-        <v>1</v>
-      </c>
-      <c r="I529" t="n">
-        <v>47.36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr">
         <is>
@@ -17939,11 +18091,9 @@
         <v>-2318526.818620308</v>
       </c>
       <c r="H530" t="n">
-        <v>1</v>
-      </c>
-      <c r="I530" t="n">
-        <v>47.56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
       <c r="K530" t="inlineStr">
         <is>
@@ -17978,11 +18128,9 @@
         <v>-2320889.307920308</v>
       </c>
       <c r="H531" t="n">
-        <v>1</v>
-      </c>
-      <c r="I531" t="n">
-        <v>47.57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr">
         <is>
@@ -18017,11 +18165,9 @@
         <v>-2311446.701520308</v>
       </c>
       <c r="H532" t="n">
-        <v>1</v>
-      </c>
-      <c r="I532" t="n">
-        <v>47.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr">
         <is>
@@ -18093,11 +18239,9 @@
         <v>-2266081.804720309</v>
       </c>
       <c r="H534" t="n">
-        <v>1</v>
-      </c>
-      <c r="I534" t="n">
-        <v>47.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr">
         <is>
@@ -18132,11 +18276,9 @@
         <v>-2244844.997918059</v>
       </c>
       <c r="H535" t="n">
-        <v>1</v>
-      </c>
-      <c r="I535" t="n">
-        <v>47.68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
       <c r="K535" t="inlineStr">
         <is>
@@ -18171,11 +18313,9 @@
         <v>-2278024.490818059</v>
       </c>
       <c r="H536" t="n">
-        <v>1</v>
-      </c>
-      <c r="I536" t="n">
-        <v>47.94</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
       <c r="K536" t="inlineStr">
         <is>
@@ -18432,18 +18572,16 @@
         <v>-2507033.337240969</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L543" t="n">
-        <v>1</v>
-      </c>
+      <c r="L543" t="inlineStr"/>
       <c r="M543" t="inlineStr"/>
     </row>
     <row r="544">
@@ -18473,11 +18611,7 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -18510,11 +18644,7 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -18547,11 +18677,7 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -18584,11 +18710,7 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -18621,11 +18743,7 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -18658,11 +18776,7 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -18695,11 +18809,7 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -18732,11 +18842,7 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -18769,11 +18875,7 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -18806,11 +18908,7 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -18843,11 +18941,7 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -18880,11 +18974,7 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -18917,11 +19007,7 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -18954,11 +19040,7 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -18991,11 +19073,7 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19028,11 +19106,7 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19065,11 +19139,7 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19102,11 +19172,7 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19139,11 +19205,7 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19176,11 +19238,7 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19213,11 +19271,7 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19246,13 +19300,15 @@
         <v>-2990235.4938357</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
-      </c>
-      <c r="I565" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I565" t="n">
+        <v>47.15</v>
+      </c>
       <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L565" t="n">
@@ -19515,9 +19571,11 @@
         <v>-3022259.0108662</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
-      </c>
-      <c r="I572" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I572" t="n">
+        <v>47.36</v>
+      </c>
       <c r="J572" t="inlineStr"/>
       <c r="K572" t="inlineStr">
         <is>
@@ -19725,6 +19783,6 @@
       <c r="M577" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest ADA.xlsx
+++ b/BackTest/2020-01-20 BackTest ADA.xlsx
@@ -649,7 +649,7 @@
         <v>-708677.8136484999</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-704293.2358484999</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-707260.4965484999</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-707260.4965484999</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-758352.0990484999</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-785359.1825484999</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-732571.3292484999</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-732571.3292484999</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-732806.1646484999</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-732806.1646484999</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-736996.5382401099</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-734806.1647401099</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-733720.8396401099</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-778050.3198401099</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-778034.66904011</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-801846.6654401099</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-808958.1868401099</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-808958.1868401099</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-808958.1868401099</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-806486.7157401099</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-806308.0379557199</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-814196.6708557198</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-840171.7346557198</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-841440.5752557198</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-960615.4479557199</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-1014180.85695572</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-1014180.85695572</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-1014180.85695572</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-1027984.17625572</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-1018359.21335572</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-968359.2133557198</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-959859.2133557198</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-959859.2133557198</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-959859.2133557198</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-959859.2133557198</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-959859.2133557198</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-994692.4505557198</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-938115.1517557198</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-948647.3118557198</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-948647.3118557198</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-955747.3118557198</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-955222.9901557198</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-955222.9901557198</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-953852.9901557198</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-953852.9901557198</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-953785.1529557199</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-956028.3026557198</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-905709.6225557198</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-1104802.35575572</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-1104802.35575572</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-1257604.48315572</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-1245600.65875572</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-1247601.65875572</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-1247267.75345572</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-1247218.81725572</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-1243130.81725572</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-1243687.43365572</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-1225904.62375572</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-1195496.30855572</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-1130702.38235572</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-1098224.62875572</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-1065717.26725572</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-1065731.15615572</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-1066694.11075572</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-1067573.96355572</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-1067240.92525572</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-1067240.92525572</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-1067240.92525572</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-1067240.92525572</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-1067240.92525572</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-1066906.45875572</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-1071784.94945572</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-1053367.44725572</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-1053843.88475572</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-1053843.88475572</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-1053843.88475572</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-1045916.21125572</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-1029916.21125572</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-1029273.20525572</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-1013967.52915572</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-953713.7005557196</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-969338.5941557196</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-969338.5941557196</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-969338.5941557196</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-969338.5941557196</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-865340.2166557196</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-865340.2166557196</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-925942.2777557196</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-908296.7905557196</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-921549.8733557196</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-917399.6712557196</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-917399.6712557196</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-917399.6712557196</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-919353.5594933096</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-920843.5412933095</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-920853.5412933095</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-918894.6774343495</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-929574.1666343495</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-929574.1666343495</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-929574.1666343495</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-1127496.869734349</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-1117395.552134349</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-1145916.03290622</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-1150531.54540622</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-1253979.731336099</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-1225258.244936099</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-1225258.244936099</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-1225258.244936099</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-1214859.405836099</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-1214886.338336099</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-1214886.338336099</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-1214886.338336099</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-1156166.398685599</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-1156166.398685599</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-1156166.398685599</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-1150811.849936099</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-1150811.849936099</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-1163353.355786599</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-1173900.5825866</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-1184635.400886599</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-1173956.643186599</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-1193840.2808866</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-1193790.62797492</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-1213019.696974919</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-1213019.696974919</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-1213019.696974919</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-1213009.696974919</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-1213009.696974919</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-1093751.076374919</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-1093700.076374919</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-1093700.076374919</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-1093700.076374919</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-1091962.852374919</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-1056802.02857492</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-1025782.64286138</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-1025782.64286138</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-1026205.50286138</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-947391.3262613795</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-969787.2318613795</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-1029805.688161379</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-986316.7543613794</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-986316.7543613794</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-1068265.326361379</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-1085296.503861379</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-1085947.386761379</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-1090189.091161379</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-1075708.156261379</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-1138616.384361379</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-1144772.007761379</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-1216535.167161379</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-1239557.35796138</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-1210255.58356138</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-1210255.58356138</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-1233696.87166138</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-1240589.52296138</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-1385133.396272979</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-1385500.218272979</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-1327490.218272979</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-1357297.866172979</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-1357297.866172979</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-1513513.283972979</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>-1185451.307919129</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>-1185451.307919129</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>-1088822.419977339</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>-1098265.026377339</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>-1103684.015977339</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>-1110246.622277339</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>-1133608.537477339</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>-1155229.159677339</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>-1155855.15659898</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>-1155855.15659898</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>-1155855.15659898</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>-1152248.62839898</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>-1154956.79969898</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>-1153136.29969898</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>-1152476.29969898</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>-1152476.29969898</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>-1047803.21149898</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>-1047778.53679898</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>-1047818.3897686</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>-1047818.3897686</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>-1047818.3897686</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>-1070081.4272686</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>-1070027.10508721</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>-1071985.96888721</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>-1071985.96888721</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>-1071985.96888721</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>-1072997.71688721</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>-1072997.71688721</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>-1072997.71688721</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>-1069702.75952287</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>-1079286.75442287</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>-1079286.75442287</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -16126,17 +16126,11 @@
         <v>-1554469.735581139</v>
       </c>
       <c r="H477" t="n">
-        <v>1</v>
-      </c>
-      <c r="I477" t="n">
-        <v>47.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16165,17 +16159,11 @@
         <v>-1554469.735581139</v>
       </c>
       <c r="H478" t="n">
-        <v>1</v>
-      </c>
-      <c r="I478" t="n">
-        <v>47.73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16208,11 +16196,7 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16245,11 +16229,7 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16282,11 +16262,7 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16319,11 +16295,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16356,11 +16328,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16393,11 +16361,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16430,11 +16394,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16467,11 +16427,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16504,11 +16460,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16541,11 +16493,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16578,11 +16526,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16615,11 +16559,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -16652,11 +16592,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -16689,11 +16625,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -16726,11 +16658,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -16763,11 +16691,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -16800,11 +16724,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -16837,11 +16757,7 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -16874,11 +16790,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -16911,11 +16823,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -16948,11 +16856,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -16985,11 +16889,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17022,11 +16922,7 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17059,11 +16955,7 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17096,11 +16988,7 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17133,11 +17021,7 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17170,11 +17054,7 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17207,11 +17087,7 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17244,11 +17120,7 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17281,11 +17153,7 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17318,11 +17186,7 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17355,11 +17219,7 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17392,11 +17252,7 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17429,11 +17285,7 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17466,11 +17318,7 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17503,11 +17351,7 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17540,11 +17384,7 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17577,11 +17417,7 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17614,11 +17450,7 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17651,11 +17483,7 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17688,11 +17516,7 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -17725,11 +17549,7 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -17762,11 +17582,7 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -17799,11 +17615,7 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -17836,11 +17648,7 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -17873,11 +17681,7 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -17910,11 +17714,7 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -17947,11 +17747,7 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -17984,11 +17780,7 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18021,11 +17813,7 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18058,11 +17846,7 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18095,11 +17879,7 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18132,11 +17912,7 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18169,11 +17945,7 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18206,11 +17978,7 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18243,11 +18011,7 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18280,11 +18044,7 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18317,11 +18077,7 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18354,11 +18110,7 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18391,11 +18143,7 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18428,11 +18176,7 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18465,11 +18209,7 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18502,11 +18242,7 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18539,11 +18275,7 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18572,16 +18304,14 @@
         <v>-2507033.337240969</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L543" t="inlineStr"/>
+      <c r="K543" t="inlineStr"/>
+      <c r="L543" t="n">
+        <v>1</v>
+      </c>
       <c r="M543" t="inlineStr"/>
     </row>
     <row r="544">
@@ -19300,366 +19030,356 @@
         <v>-2990235.4938357</v>
       </c>
       <c r="H565" t="n">
-        <v>1</v>
-      </c>
-      <c r="I565" t="n">
-        <v>47.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr">
+      <c r="K565" t="inlineStr"/>
+      <c r="L565" t="n">
+        <v>1</v>
+      </c>
+      <c r="M565" t="inlineStr"/>
+    </row>
+    <row r="566">
+      <c r="A566" s="1" t="n">
+        <v>564</v>
+      </c>
+      <c r="B566" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="C566" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="D566" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="E566" t="n">
+        <v>47.05</v>
+      </c>
+      <c r="F566" t="n">
+        <v>68972.7058</v>
+      </c>
+      <c r="G566" t="n">
+        <v>-2990235.4938357</v>
+      </c>
+      <c r="H566" t="n">
+        <v>0</v>
+      </c>
+      <c r="I566" t="inlineStr"/>
+      <c r="J566" t="inlineStr"/>
+      <c r="K566" t="inlineStr"/>
+      <c r="L566" t="n">
+        <v>1</v>
+      </c>
+      <c r="M566" t="inlineStr"/>
+    </row>
+    <row r="567">
+      <c r="A567" s="1" t="n">
+        <v>565</v>
+      </c>
+      <c r="B567" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="C567" t="n">
+        <v>46.92</v>
+      </c>
+      <c r="D567" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="E567" t="n">
+        <v>46.92</v>
+      </c>
+      <c r="F567" t="n">
+        <v>97539.82216525001</v>
+      </c>
+      <c r="G567" t="n">
+        <v>-3087775.31600095</v>
+      </c>
+      <c r="H567" t="n">
+        <v>0</v>
+      </c>
+      <c r="I567" t="inlineStr"/>
+      <c r="J567" t="inlineStr"/>
+      <c r="K567" t="inlineStr"/>
+      <c r="L567" t="n">
+        <v>1</v>
+      </c>
+      <c r="M567" t="inlineStr"/>
+    </row>
+    <row r="568">
+      <c r="A568" s="1" t="n">
+        <v>566</v>
+      </c>
+      <c r="B568" t="n">
+        <v>47.02</v>
+      </c>
+      <c r="C568" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="D568" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="E568" t="n">
+        <v>47.02</v>
+      </c>
+      <c r="F568" t="n">
+        <v>35391.36553475</v>
+      </c>
+      <c r="G568" t="n">
+        <v>-3052383.9504662</v>
+      </c>
+      <c r="H568" t="n">
+        <v>1</v>
+      </c>
+      <c r="I568" t="n">
+        <v>46.92</v>
+      </c>
+      <c r="J568" t="n">
+        <v>46.92</v>
+      </c>
+      <c r="K568" t="inlineStr"/>
+      <c r="L568" t="n">
+        <v>1</v>
+      </c>
+      <c r="M568" t="inlineStr"/>
+    </row>
+    <row r="569">
+      <c r="A569" s="1" t="n">
+        <v>567</v>
+      </c>
+      <c r="B569" t="n">
+        <v>47.27</v>
+      </c>
+      <c r="C569" t="n">
+        <v>47.19</v>
+      </c>
+      <c r="D569" t="n">
+        <v>47.28</v>
+      </c>
+      <c r="E569" t="n">
+        <v>47.19</v>
+      </c>
+      <c r="F569" t="n">
+        <v>4620.6155</v>
+      </c>
+      <c r="G569" t="n">
+        <v>-3057004.5659662</v>
+      </c>
+      <c r="H569" t="n">
+        <v>1</v>
+      </c>
+      <c r="I569" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="J569" t="n">
+        <v>46.92</v>
+      </c>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L569" t="n">
+        <v>1</v>
+      </c>
+      <c r="M569" t="inlineStr"/>
+    </row>
+    <row r="570">
+      <c r="A570" s="1" t="n">
+        <v>568</v>
+      </c>
+      <c r="B570" t="n">
+        <v>47.29</v>
+      </c>
+      <c r="C570" t="n">
+        <v>47.29</v>
+      </c>
+      <c r="D570" t="n">
+        <v>47.29</v>
+      </c>
+      <c r="E570" t="n">
+        <v>47.29</v>
+      </c>
+      <c r="F570" t="n">
+        <v>10542.3722</v>
+      </c>
+      <c r="G570" t="n">
+        <v>-3046462.1937662</v>
+      </c>
+      <c r="H570" t="n">
+        <v>1</v>
+      </c>
+      <c r="I570" t="n">
+        <v>47.19</v>
+      </c>
+      <c r="J570" t="n">
+        <v>46.92</v>
+      </c>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L570" t="n">
+        <v>1</v>
+      </c>
+      <c r="M570" t="inlineStr"/>
+    </row>
+    <row r="571">
+      <c r="A571" s="1" t="n">
+        <v>569</v>
+      </c>
+      <c r="B571" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="C571" t="n">
+        <v>47.36</v>
+      </c>
+      <c r="D571" t="n">
+        <v>47.36</v>
+      </c>
+      <c r="E571" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="F571" t="n">
+        <v>12318.7731</v>
+      </c>
+      <c r="G571" t="n">
+        <v>-3034143.4206662</v>
+      </c>
+      <c r="H571" t="n">
+        <v>1</v>
+      </c>
+      <c r="I571" t="n">
+        <v>47.29</v>
+      </c>
+      <c r="J571" t="n">
+        <v>47.29</v>
+      </c>
+      <c r="K571" t="inlineStr"/>
+      <c r="L571" t="n">
+        <v>1</v>
+      </c>
+      <c r="M571" t="inlineStr"/>
+    </row>
+    <row r="572">
+      <c r="A572" s="1" t="n">
+        <v>570</v>
+      </c>
+      <c r="B572" t="n">
+        <v>47.55</v>
+      </c>
+      <c r="C572" t="n">
+        <v>47.55</v>
+      </c>
+      <c r="D572" t="n">
+        <v>47.55</v>
+      </c>
+      <c r="E572" t="n">
+        <v>47.55</v>
+      </c>
+      <c r="F572" t="n">
+        <v>11884.4098</v>
+      </c>
+      <c r="G572" t="n">
+        <v>-3022259.0108662</v>
+      </c>
+      <c r="H572" t="n">
+        <v>1</v>
+      </c>
+      <c r="I572" t="n">
+        <v>47.36</v>
+      </c>
+      <c r="J572" t="n">
+        <v>47.29</v>
+      </c>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L572" t="n">
+        <v>1</v>
+      </c>
+      <c r="M572" t="inlineStr"/>
+    </row>
+    <row r="573">
+      <c r="A573" s="1" t="n">
+        <v>571</v>
+      </c>
+      <c r="B573" t="n">
+        <v>47.61</v>
+      </c>
+      <c r="C573" t="n">
+        <v>47.61</v>
+      </c>
+      <c r="D573" t="n">
+        <v>47.61</v>
+      </c>
+      <c r="E573" t="n">
+        <v>47.61</v>
+      </c>
+      <c r="F573" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G573" t="n">
+        <v>-3017259.0108662</v>
+      </c>
+      <c r="H573" t="n">
+        <v>1</v>
+      </c>
+      <c r="I573" t="n">
+        <v>47.55</v>
+      </c>
+      <c r="J573" t="n">
+        <v>47.29</v>
+      </c>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L573" t="n">
+        <v>1</v>
+      </c>
+      <c r="M573" t="inlineStr"/>
+    </row>
+    <row r="574">
+      <c r="A574" s="1" t="n">
+        <v>572</v>
+      </c>
+      <c r="B574" t="n">
+        <v>47.57</v>
+      </c>
+      <c r="C574" t="n">
+        <v>47.76</v>
+      </c>
+      <c r="D574" t="n">
+        <v>47.76</v>
+      </c>
+      <c r="E574" t="n">
+        <v>47.57</v>
+      </c>
+      <c r="F574" t="n">
+        <v>22244.90704623</v>
+      </c>
+      <c r="G574" t="n">
+        <v>-2995014.10381997</v>
+      </c>
+      <c r="H574" t="n">
+        <v>1</v>
+      </c>
+      <c r="I574" t="n">
+        <v>47.61</v>
+      </c>
+      <c r="J574" t="n">
+        <v>47.29</v>
+      </c>
+      <c r="K574" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L565" t="n">
-        <v>1</v>
-      </c>
-      <c r="M565" t="inlineStr"/>
-    </row>
-    <row r="566">
-      <c r="A566" s="1" t="n">
-        <v>564</v>
-      </c>
-      <c r="B566" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="C566" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="D566" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="E566" t="n">
-        <v>47.05</v>
-      </c>
-      <c r="F566" t="n">
-        <v>68972.7058</v>
-      </c>
-      <c r="G566" t="n">
-        <v>-2990235.4938357</v>
-      </c>
-      <c r="H566" t="n">
-        <v>0</v>
-      </c>
-      <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L566" t="n">
-        <v>1</v>
-      </c>
-      <c r="M566" t="inlineStr"/>
-    </row>
-    <row r="567">
-      <c r="A567" s="1" t="n">
-        <v>565</v>
-      </c>
-      <c r="B567" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="C567" t="n">
-        <v>46.92</v>
-      </c>
-      <c r="D567" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="E567" t="n">
-        <v>46.92</v>
-      </c>
-      <c r="F567" t="n">
-        <v>97539.82216525001</v>
-      </c>
-      <c r="G567" t="n">
-        <v>-3087775.31600095</v>
-      </c>
-      <c r="H567" t="n">
-        <v>1</v>
-      </c>
-      <c r="I567" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L567" t="n">
-        <v>1</v>
-      </c>
-      <c r="M567" t="inlineStr"/>
-    </row>
-    <row r="568">
-      <c r="A568" s="1" t="n">
-        <v>566</v>
-      </c>
-      <c r="B568" t="n">
-        <v>47.02</v>
-      </c>
-      <c r="C568" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="D568" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="E568" t="n">
-        <v>47.02</v>
-      </c>
-      <c r="F568" t="n">
-        <v>35391.36553475</v>
-      </c>
-      <c r="G568" t="n">
-        <v>-3052383.9504662</v>
-      </c>
-      <c r="H568" t="n">
-        <v>1</v>
-      </c>
-      <c r="I568" t="n">
-        <v>46.92</v>
-      </c>
-      <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L568" t="n">
-        <v>1</v>
-      </c>
-      <c r="M568" t="inlineStr"/>
-    </row>
-    <row r="569">
-      <c r="A569" s="1" t="n">
-        <v>567</v>
-      </c>
-      <c r="B569" t="n">
-        <v>47.27</v>
-      </c>
-      <c r="C569" t="n">
-        <v>47.19</v>
-      </c>
-      <c r="D569" t="n">
-        <v>47.28</v>
-      </c>
-      <c r="E569" t="n">
-        <v>47.19</v>
-      </c>
-      <c r="F569" t="n">
-        <v>4620.6155</v>
-      </c>
-      <c r="G569" t="n">
-        <v>-3057004.5659662</v>
-      </c>
-      <c r="H569" t="n">
-        <v>1</v>
-      </c>
-      <c r="I569" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L569" t="n">
-        <v>1</v>
-      </c>
-      <c r="M569" t="inlineStr"/>
-    </row>
-    <row r="570">
-      <c r="A570" s="1" t="n">
-        <v>568</v>
-      </c>
-      <c r="B570" t="n">
-        <v>47.29</v>
-      </c>
-      <c r="C570" t="n">
-        <v>47.29</v>
-      </c>
-      <c r="D570" t="n">
-        <v>47.29</v>
-      </c>
-      <c r="E570" t="n">
-        <v>47.29</v>
-      </c>
-      <c r="F570" t="n">
-        <v>10542.3722</v>
-      </c>
-      <c r="G570" t="n">
-        <v>-3046462.1937662</v>
-      </c>
-      <c r="H570" t="n">
-        <v>1</v>
-      </c>
-      <c r="I570" t="n">
-        <v>47.19</v>
-      </c>
-      <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L570" t="n">
-        <v>1</v>
-      </c>
-      <c r="M570" t="inlineStr"/>
-    </row>
-    <row r="571">
-      <c r="A571" s="1" t="n">
-        <v>569</v>
-      </c>
-      <c r="B571" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="C571" t="n">
-        <v>47.36</v>
-      </c>
-      <c r="D571" t="n">
-        <v>47.36</v>
-      </c>
-      <c r="E571" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="F571" t="n">
-        <v>12318.7731</v>
-      </c>
-      <c r="G571" t="n">
-        <v>-3034143.4206662</v>
-      </c>
-      <c r="H571" t="n">
-        <v>1</v>
-      </c>
-      <c r="I571" t="n">
-        <v>47.29</v>
-      </c>
-      <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L571" t="n">
-        <v>1</v>
-      </c>
-      <c r="M571" t="inlineStr"/>
-    </row>
-    <row r="572">
-      <c r="A572" s="1" t="n">
-        <v>570</v>
-      </c>
-      <c r="B572" t="n">
-        <v>47.55</v>
-      </c>
-      <c r="C572" t="n">
-        <v>47.55</v>
-      </c>
-      <c r="D572" t="n">
-        <v>47.55</v>
-      </c>
-      <c r="E572" t="n">
-        <v>47.55</v>
-      </c>
-      <c r="F572" t="n">
-        <v>11884.4098</v>
-      </c>
-      <c r="G572" t="n">
-        <v>-3022259.0108662</v>
-      </c>
-      <c r="H572" t="n">
-        <v>1</v>
-      </c>
-      <c r="I572" t="n">
-        <v>47.36</v>
-      </c>
-      <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L572" t="n">
-        <v>1</v>
-      </c>
-      <c r="M572" t="inlineStr"/>
-    </row>
-    <row r="573">
-      <c r="A573" s="1" t="n">
-        <v>571</v>
-      </c>
-      <c r="B573" t="n">
-        <v>47.61</v>
-      </c>
-      <c r="C573" t="n">
-        <v>47.61</v>
-      </c>
-      <c r="D573" t="n">
-        <v>47.61</v>
-      </c>
-      <c r="E573" t="n">
-        <v>47.61</v>
-      </c>
-      <c r="F573" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G573" t="n">
-        <v>-3017259.0108662</v>
-      </c>
-      <c r="H573" t="n">
-        <v>1</v>
-      </c>
-      <c r="I573" t="n">
-        <v>47.55</v>
-      </c>
-      <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L573" t="n">
-        <v>1</v>
-      </c>
-      <c r="M573" t="inlineStr"/>
-    </row>
-    <row r="574">
-      <c r="A574" s="1" t="n">
-        <v>572</v>
-      </c>
-      <c r="B574" t="n">
-        <v>47.57</v>
-      </c>
-      <c r="C574" t="n">
-        <v>47.76</v>
-      </c>
-      <c r="D574" t="n">
-        <v>47.76</v>
-      </c>
-      <c r="E574" t="n">
-        <v>47.57</v>
-      </c>
-      <c r="F574" t="n">
-        <v>22244.90704623</v>
-      </c>
-      <c r="G574" t="n">
-        <v>-2995014.10381997</v>
-      </c>
-      <c r="H574" t="n">
-        <v>1</v>
-      </c>
-      <c r="I574" t="n">
-        <v>47.61</v>
-      </c>
-      <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -19693,7 +19413,9 @@
       <c r="I575" t="n">
         <v>47.76</v>
       </c>
-      <c r="J575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>47.29</v>
+      </c>
       <c r="K575" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19732,7 +19454,9 @@
       <c r="I576" t="n">
         <v>47.75</v>
       </c>
-      <c r="J576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>47.29</v>
+      </c>
       <c r="K576" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19771,7 +19495,9 @@
       <c r="I577" t="n">
         <v>47.57</v>
       </c>
-      <c r="J577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>47.29</v>
+      </c>
       <c r="K577" t="inlineStr">
         <is>
           <t>매도 대기</t>
